--- a/tables/CookedTable.xlsx
+++ b/tables/CookedTable.xlsx
@@ -643,11 +643,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х. Ссылка на консультацию: https://telemost.yandex.ru/j/95556470761655</t>
@@ -695,82 +691,82 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Технологии программирования.  Тумаков Д.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/71097686755485 </t>
+          <t>Технологии программирования. Тумаков Д.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/71097686755485</t>
         </is>
       </c>
       <c r="P3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Технологии программирования.  Тумаков Д.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/71097686755485 </t>
+          <t>Технологии программирования. Тумаков Д.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/71097686755485</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="U3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Математический анализ.  Дубровин В.Т.  с 16.09.2024 Ссылка на консультацию:  https://telemost.yandex.ru/j/31079638256249</t>
+          <t>Математический анализ. Дубровин В.Т. с 16.09.2024 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Математический анализ.  Дубровин В.Т.  с 16.09.2024 Ссылка на консультацию:  https://telemost.yandex.ru/j/31079638256249</t>
+          <t>Математический анализ. Дубровин В.Т. с 16.09.2024 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Математический анализ.  Дубровин В.Т.  с 16.09.2024 Ссылка на консультацию:  https://telemost.yandex.ru/j/31079638256249</t>
+          <t>Математический анализ. Дубровин В.Т. с 16.09.2024 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="Y3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Математический анализ.  Дубровин В.Т.  с 16.09.2024 Ссылка на консультацию:  https://telemost.yandex.ru/j/31079638256249</t>
+          <t>Математический анализ. Дубровин В.Т. с 16.09.2024 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ.  Асхатов Р.М.  Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="AA3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ.  Асхатов Р.М.  Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="AB3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ.  Асхатов Р.М.  Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="AC3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ.  Асхатов Р.М.  Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
     </row>
@@ -790,66 +786,57 @@
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="M4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Алгебра и геометрия. Курбангалеев А.А.  Ссылка на консультацию:                                         https://telemost.yandex.ru/j/62470180845124                                                                                  или       Подключиться к конференции Zoom
-https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09
-Идентификатор конференции: 304 629 1227
-Код доступа: 424451  </t>
+          <t>Алгебра и геометрия. Курбангалеев А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/62470180845124 или Подключиться к конференции Zoom https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09 Идентификатор конференции: 304 629 1227 Код доступа: 424451</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Алгебра и геометрия. Курбангалеев А.А.  Ссылка на консультацию:                                         https://telemost.yandex.ru/j/62470180845124                                                                                  или       Подключиться к конференции Zoom
-https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09
-Идентификатор конференции: 304 629 1227
-Код доступа: 424451  </t>
+          <t>Алгебра и геометрия. Курбангалеев А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/62470180845124 или Подключиться к конференции Zoom https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09 Идентификатор конференции: 304 629 1227 Код доступа: 424451</t>
         </is>
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Алгебра и геометрия. Курбангалеев А.А.  Ссылка на консультацию:                                         https://telemost.yandex.ru/j/62470180845124                                                                                  или       Подключиться к конференции Zoom
-https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09
-Идентификатор конференции: 304 629 1227
-Код доступа: 424451  </t>
+          <t>Алгебра и геометрия. Курбангалеев А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/62470180845124 или Подключиться к конференции Zoom https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09 Идентификатор конференции: 304 629 1227 Код доступа: 424451</t>
         </is>
       </c>
     </row>
@@ -867,29 +854,25 @@
           <t>17:20</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="O5" s="5" t="inlineStr">
         <is>
-          <t>История России.  Бродовская Л.Н.   Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+          <t>История России. Бродовская Л.Н. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
         </is>
       </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
-          <t>История России.  Бродовская Л.Н.   Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+          <t>История России. Бродовская Л.Н. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
         </is>
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>История России.  Бродовская Л.Н.   Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+          <t>История России. Бродовская Л.Н. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>История России.  Бродовская Л.Н.   Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+          <t>История России. Бродовская Л.Н. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
         </is>
       </c>
     </row>
@@ -907,29 +890,25 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="O6" s="5" t="inlineStr">
         <is>
-          <t>(9.00-10.00) Иностранный язык.  Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386; Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753;   Губайдуллина Р.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054</t>
+          <t>(9.00-10.00) Иностранный язык. Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386; Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054</t>
         </is>
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
-          <t>(9.00-10.00) Иностранный язык.  Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386; Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753;   Губайдуллина Р.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054</t>
+          <t>(9.00-10.00) Иностранный язык. Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386; Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054</t>
         </is>
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>(9.00-10.00) Иностранный язык.   Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ;   Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>(9.00-10.00) Иностранный язык. Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>(9.00-10.00) Иностранный язык.   Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ;   Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>(9.00-10.00) Иностранный язык. Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
     </row>
@@ -949,92 +928,92 @@
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159                                                                                                                                           Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159                                                                                                                                           Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159                                                                                                                                           Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159                                                                                                                                           Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159                                                                                                                                           Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159                                                                                                                                           Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="M7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159                                                                                                                                           Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159                                                                                                                                           Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Асхатов Р.М.  Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Асхатов Р.М.  Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России.   Буравлева В.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России.   Буравлева В.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России.   Буравлева В.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="Y7" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России.   Буравлева В.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.  Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ;   Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>Иностранный язык. Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="AA7" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.  Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ;   Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>Иностранный язык. Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="AB7" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.  Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ;   Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>Иностранный язык. Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="AC7" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.  Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ;   Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>Иностранный язык. Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
     </row>
@@ -1074,52 +1053,52 @@
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Математический анализ. Сидоров А.М.  Ссылка на консультацию: https://telemost.yandex.ru/j/45978894001477</t>
+          <t>Математический анализ. Сидоров А.М. Ссылка на консультацию: https://telemost.yandex.ru/j/45978894001477</t>
         </is>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Математический анализ. Сидоров А.М.  Ссылка на консультацию: https://telemost.yandex.ru/j/45978894001477</t>
+          <t>Математический анализ. Сидоров А.М. Ссылка на консультацию: https://telemost.yandex.ru/j/45978894001477</t>
         </is>
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.  Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ;  Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.  Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ;  Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="X8" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.  Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ;  Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="Y8" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.  Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ;  Галиуллина Э.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России.   Буравлева В.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="AA8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России.   Буравлева В.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="AB8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России.   Буравлева В.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="AC8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> История России.   Буравлева В.В.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
     </row>
@@ -1139,42 +1118,42 @@
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658;   Губайдуллина Р.Н..  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658;   Губайдуллина Р.Н..  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658;   Губайдуллина Р.Н..  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658;   Губайдуллина Р.Н..  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658;   Губайдуллина Р.Н..  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658;   Губайдуллина Р.Н..  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="M9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658;   Губайдуллина Р.Н..  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168;  Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658;   Губайдуллина Р.Н..  Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="Z9" s="5" t="inlineStr">
@@ -1199,37 +1178,37 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.   Першина Н.О. Ссылка на консультацию:https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Першина Н.О. Ссылка на консультацию:https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.   Першина Н.О. Ссылка на консультацию:https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Першина Н.О. Ссылка на консультацию:https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.   Першина Н.О. Ссылка на консультацию:https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р.  Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386</t>
+          <t>Иностранный язык. Першина Н.О. Ссылка на консультацию:https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Лабораторный практикум по информационно-компьютерным технологиям. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/93178198843348</t>
+          <t>Лабораторный практикум по информационно-компьютерным технологиям. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/93178198843348</t>
         </is>
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультациюhttps://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультациюhttps://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168</t>
         </is>
       </c>
       <c r="T10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультациюhttps://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультациюhttps://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168</t>
         </is>
       </c>
       <c r="U10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык.   Ситдикова Ф.Б.   Ссылка на консультациюhttps://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168</t>
+          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультациюhttps://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168</t>
         </is>
       </c>
       <c r="AA10" s="5" t="inlineStr">
@@ -1252,24 +1231,20 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="S11" s="5" t="inlineStr">
         <is>
-          <t>Физика.  Налетов В.В.  Ссылка на консультацию: https://telemost.yandex.ru/j/3042816657.                                                                            Адрес для старост: naletov.phys.inst.2020@mail.ru</t>
+          <t>Физика. Налетов В.В. Ссылка на консультацию: https://telemost.yandex.ru/j/3042816657. Адрес для старост: naletov.phys.inst.2020@mail.ru</t>
         </is>
       </c>
       <c r="T11" s="5" t="inlineStr">
         <is>
-          <t>Физика.  Налетов В.В.  Ссылка на консультацию: https://telemost.yandex.ru/j/3042816657.                                                                            Адрес для старост: naletov.phys.inst.2020@mail.ru</t>
+          <t>Физика. Налетов В.В. Ссылка на консультацию: https://telemost.yandex.ru/j/3042816657. Адрес для старост: naletov.phys.inst.2020@mail.ru</t>
         </is>
       </c>
       <c r="U11" s="5" t="inlineStr">
         <is>
-          <t>Физика.  Налетов В.В.  Ссылка на консультацию: https://telemost.yandex.ru/j/3042816657.                                                                            Адрес для старост: naletov.phys.inst.2020@mail.ru</t>
+          <t>Физика. Налетов В.В. Ссылка на консультацию: https://telemost.yandex.ru/j/3042816657. Адрес для старост: naletov.phys.inst.2020@mail.ru</t>
         </is>
       </c>
     </row>
@@ -1289,42 +1264,42 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="M12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="S12" s="5" t="inlineStr">
@@ -1359,27 +1334,27 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ.  Дубровин В.Т.   с 18.09 Ссылка на консультацию:   https://telemost.yandex.ru/j/31079638256249</t>
+          <t>Математический анализ. Дубровин В.Т. с 18.09 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ.  Дубровин В.Т.   с 18.09 Ссылка на консультацию:   https://telemost.yandex.ru/j/31079638256249</t>
+          <t>Математический анализ. Дубровин В.Т. с 18.09 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ.  Дубровин В.Т.   с 18.09 Ссылка на консультацию:   https://telemost.yandex.ru/j/31079638256249</t>
+          <t>Математический анализ. Дубровин В.Т. с 18.09 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки.  Гайнутдинова А.Ф. Ссылка на консультацию: https://telemost.yandex.ru/j/06177499345979</t>
+          <t>Программирование и алгоритмические языки. Гайнутдинова А.Ф. Ссылка на консультацию: https://telemost.yandex.ru/j/06177499345979</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Ахтямов Р.Б.  Ссылка на консультацию: https://telemost.yandex.ru/j/57523198147457</t>
+          <t>Программирование и алгоритмические языки. Ахтямов Р.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/57523198147457</t>
         </is>
       </c>
       <c r="J13" s="5" t="inlineStr">
@@ -1399,52 +1374,52 @@
       </c>
       <c r="M13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки.   Зиннатуллин И.Г.Ссылка на консультацию:https://telemost.yandex.ru/j/24958426605295</t>
+          <t>Программирование и алгоритмические языки. Зиннатуллин И.Г.Ссылка на консультацию:https://telemost.yandex.ru/j/24958426605295</t>
         </is>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки.  Серов Д.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/22069858422782</t>
+          <t>Программирование и алгоритмические языки. Серов Д.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/22069858422782</t>
         </is>
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Алгебра и геометрия. Карчевский Е.М.  Ссылка на консультацию: https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
+          <t>Алгебра и геометрия. Карчевский Е.М. Ссылка на консультацию: https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
         </is>
       </c>
       <c r="P13" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Алгебра и геометрия. Карчевский Е.М.  Ссылка на консультацию: https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
+          <t>Алгебра и геометрия. Карчевский Е.М. Ссылка на консультацию: https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
         </is>
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия.   Гайнуллина А.Р.  Ссылка на консультацию: https://telemost.yandex.ru/j/55334243936222</t>
+          <t>Алгебра и геометрия. Гайнуллина А.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/55334243936222</t>
         </is>
       </c>
       <c r="R13" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия.   Гайнуллина А.Р.  Ссылка на консультацию: https://telemost.yandex.ru/j/55334243936222</t>
+          <t>Алгебра и геометрия. Гайнуллина А.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/55334243936222</t>
         </is>
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Авдеева А.А.        Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
+          <t>Ознакомительная практика. Авдеева А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Авдеева А.А.        Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
+          <t>Ознакомительная практика. Авдеева А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
         </is>
       </c>
       <c r="X13" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Авдеева А.А.        Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
+          <t>Ознакомительная практика. Авдеева А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
         </is>
       </c>
       <c r="Y13" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Авдеева А.А.        Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
+          <t>Ознакомительная практика. Авдеева А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
         </is>
       </c>
     </row>
@@ -1464,77 +1439,69 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ознакомительная практика.   Буянов В.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/29373530981922 </t>
+          <t>Ознакомительная практика. Буянов В.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/29373530981922</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ознакомительная практика.   Буянов В.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/29373530981922 </t>
+          <t>Ознакомительная практика. Буянов В.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/29373530981922</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ознакомительная практика.   Буянов В.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/29373530981922 </t>
+          <t>Ознакомительная практика. Буянов В.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/29373530981922</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Лабораторный практикум по информационно-компьютерным технологиям. Гайнутдинова А.Ф.Ссылка на консультацию: https://telemost.yandex.ru/j/36980135424263</t>
+          <t>Лабораторный практикум по информационно-компьютерным технологиям. Гайнутдинова А.Ф.Ссылка на консультацию: https://telemost.yandex.ru/j/36980135424263</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Лабораторный практикум по информационно-компьютерным технологиям. Ахтямов Р.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/32444479589809</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>Лабораторный практикум по информационно-компьютерным технологиям. Ахтямов Р.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/32444479589809</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям.   Зиннатуллин И.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/13031439014757</t>
+          <t>Лабораторный практикум по информационно-компьютерным технологиям. Зиннатуллин И.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/13031439014757</t>
         </is>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Лабораторный практикум по информационно-компьютерным технологиям. Серов Д.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/90815912051711</t>
+          <t>Лабораторный практикум по информационно-компьютерным технологиям. Серов Д.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/90815912051711</t>
         </is>
       </c>
       <c r="Q14" s="5" t="inlineStr">
         <is>
-          <t>Дискретная математика.  Пшеничный П.В.  Ссылка на консультацию: https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
+          <t>Дискретная математика. Пшеничный П.В. Ссылка на консультацию: https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
         </is>
       </c>
       <c r="R14" s="5" t="inlineStr">
         <is>
-          <t>Дискретная математика.  Пшеничный П.В.  Ссылка на консультацию: https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
+          <t>Дискретная математика. Пшеничный П.В. Ссылка на консультацию: https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
         </is>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для  организатора и участников: https://telemost.yandex.ru/j/17331793207150.          Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: https://telemost.yandex.ru/j/17331793207150. Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
         </is>
       </c>
       <c r="AA14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для  организатора и участников: https://telemost.yandex.ru/j/17331793207150.          Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: https://telemost.yandex.ru/j/17331793207150. Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
         </is>
       </c>
       <c r="AB14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для  организатора и участников: https://telemost.yandex.ru/j/17331793207150.          Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: https://telemost.yandex.ru/j/17331793207150. Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
         </is>
       </c>
       <c r="AC14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для  организатора и участников: https://telemost.yandex.ru/j/17331793207150.          Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: https://telemost.yandex.ru/j/17331793207150. Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
         </is>
       </c>
     </row>
@@ -1552,29 +1519,25 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="Z15" s="5" t="inlineStr">
         <is>
-          <t>Линейная алгебра. Ситдиков А.С.  Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
+          <t>Линейная алгебра. Ситдиков А.С. Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
         </is>
       </c>
       <c r="AA15" s="5" t="inlineStr">
         <is>
-          <t>Линейная алгебра. Ситдиков А.С.  Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
+          <t>Линейная алгебра. Ситдиков А.С. Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
         </is>
       </c>
       <c r="AB15" s="5" t="inlineStr">
         <is>
-          <t>Линейная алгебра. Ситдиков А.С.  Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
+          <t>Линейная алгебра. Ситдиков А.С. Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
         </is>
       </c>
       <c r="AC15" s="5" t="inlineStr">
         <is>
-          <t>Линейная алгебра. Ситдиков А.С.  Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
+          <t>Линейная алгебра. Ситдиков А.С. Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
         </is>
       </c>
     </row>
@@ -1594,17 +1557,17 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы программирования. Казаева К.Е. Ссылка на консультацию: https://telemost.yandex.ru/j/27367933567979</t>
+          <t>Основы программирования. Казаева К.Е. Ссылка на консультацию: https://telemost.yandex.ru/j/27367933567979</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы программирования. Казаева К.Е. Ссылка на консультацию: https://telemost.yandex.ru/j/27367933567979</t>
+          <t>Основы программирования. Казаева К.Е. Ссылка на консультацию: https://telemost.yandex.ru/j/27367933567979</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы программирования. Казаева К.Е. Ссылка на консультацию: https://telemost.yandex.ru/j/27367933567979</t>
+          <t>Основы программирования. Казаева К.Е. Ссылка на консультацию: https://telemost.yandex.ru/j/27367933567979</t>
         </is>
       </c>
       <c r="Q16" s="5" t="inlineStr">
@@ -1634,48 +1597,47 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5 </t>
+          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5 </t>
+          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5 </t>
+          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5 </t>
+          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5 </t>
+          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5 </t>
+          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5 </t>
+          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="N17" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5 </t>
+          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="AC17" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования на С++. Ахтямов Р.Б. Ссылка на консультацию: 
-https://telemost.yandex.ru/j/10841009668375</t>
+          <t>Основы программирования на С++. Ахтямов Р.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/10841009668375</t>
         </is>
       </c>
     </row>
@@ -1695,24 +1657,20 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>Психология.  Устин  П.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/49615810002744</t>
+          <t>Психология. Устин П.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/49615810002744</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Психология.  Устин  П.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/49615810002744</t>
+          <t>Психология. Устин П.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/49615810002744</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>Психология.  Устин  П.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/49615810002744</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>Психология. Устин П.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/49615810002744</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19" ht="80" customHeight="1">
       <c r="A19" t="n">
@@ -1730,132 +1688,132 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="M19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="O19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="P19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="U19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="V19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="W19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="X19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="Y19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="Z19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="AB19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="AC19" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 1. Прочитать конституцию РФ.   https://www.kremlin.ru/acts/constitution                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1831,15 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="Q20" s="5" t="inlineStr">
         <is>
-          <t>Информационные технологии. Рубцова Р.Г.  Ссылка на консультацию: https://telemost.yandex.ru/j/32498295057706</t>
+          <t>Информационные технологии. Рубцова Р.Г. Ссылка на консультацию: https://telemost.yandex.ru/j/32498295057706</t>
         </is>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>Информационные технологии. Рубцова Р.Г.  Ссылка на консультацию: https://telemost.yandex.ru/j/32498295057706</t>
+          <t>Информационные технологии. Рубцова Р.Г. Ссылка на консультацию: https://telemost.yandex.ru/j/32498295057706</t>
         </is>
       </c>
     </row>
@@ -1903,11 +1857,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="J21" s="5" t="inlineStr">
         <is>
           <t>Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К. Ссылка на консультацию</t>
@@ -1928,19 +1878,15 @@
           <t>11:40</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="Q22" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Основы программирования. Тагиров Р.Р.  Ссылка на консультацию:  https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d </t>
+          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d</t>
         </is>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Основы программирования. Тагиров Р.Р.  Ссылка на консультацию:  https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d </t>
+          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d</t>
         </is>
       </c>
     </row>
@@ -1960,17 +1906,17 @@
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Тагиров Р.Р.  Ссылка на консультацию:  https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
+          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
         </is>
       </c>
       <c r="T23" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Тагиров Р.Р.  Ссылка на консультацию:  https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
+          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
         </is>
       </c>
       <c r="U23" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Тагиров Р.Р.  Ссылка на консультацию:  https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
+          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
         </is>
       </c>
     </row>
@@ -1990,80 +1936,72 @@
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.   Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.   Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.   Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.   Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="K24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.   Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="L24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.   Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="M24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.   Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="N24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.   Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="O24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.  Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055  </t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055</t>
         </is>
       </c>
       <c r="P24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дисциплины по выбору:  Введение в информационную безопасность. Долгов Д.А.  Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055  </t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055</t>
         </is>
       </c>
       <c r="V24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору:    Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.  Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
         </is>
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору:    Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.  Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
         </is>
       </c>
       <c r="X24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору:    Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.  Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
         </is>
       </c>
       <c r="Y24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору:    Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.  Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
+          <t>Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
         </is>
       </c>
     </row>
@@ -2083,42 +2021,38 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Шульгина О.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/3796279800</t>
+          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/3796279800</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Шульгина О.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/3796279800</t>
+          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/3796279800</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Шульгина О.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/3796279800</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/3796279800</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="V25" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Основы программирования на С++.   Матренина О.М.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+          <t>Основы программирования на С++. Матренина О.М. Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
         </is>
       </c>
       <c r="W25" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Основы программирования на С++.   Матренина О.М.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+          <t>Основы программирования на С++. Матренина О.М. Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
         </is>
       </c>
       <c r="X25" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Основы программирования на С++.   Матренина О.М.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+          <t>Основы программирования на С++. Матренина О.М. Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
         </is>
       </c>
       <c r="Y25" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Основы программирования на С++.   Матренина О.М.  Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+          <t>Основы программирования на С++. Матренина О.М. Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
         </is>
       </c>
     </row>
@@ -2138,45 +2072,38 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дисциплины по выбору:    Основы информационной безопасности. Долгов Д.А.  Ссылка на консультацию: https://telemost.yandex.ru/j/11866007362473 ;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/11866007362473 ; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дисциплины по выбору:    Основы информационной безопасности. Долгов Д.А.  Ссылка на консультацию: https://telemost.yandex.ru/j/11866007362473 ;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
+          <t>Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/11866007362473 ; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дисциплины по выбору:    Основы информационной безопасности. Долгов Д.А.  Ссылка на консультацию: https://telemost.yandex.ru/j/11866007362473 ;  Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434
-</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/11866007362473 ; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="V26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Шульгина О.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
+          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
         </is>
       </c>
       <c r="W26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Шульгина О.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
+          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
         </is>
       </c>
       <c r="X26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Шульгина О.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
+          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
         </is>
       </c>
       <c r="Y26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Алгебра и геометрия. Шульгина О.Н.  Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
+          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
         </is>
       </c>
     </row>
@@ -2194,24 +2121,20 @@
           <t>11:40</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="S27" s="5" t="inlineStr">
         <is>
-          <t>Введение в информационную безопасность.   Мубараков Б.Г.  Ссылка на консультацию:https://telemost.yandex.ru/j/97577148817994</t>
+          <t>Введение в информационную безопасность. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/97577148817994</t>
         </is>
       </c>
       <c r="T27" s="5" t="inlineStr">
         <is>
-          <t>Введение в информационную безопасность.   Мубараков Б.Г.  Ссылка на консультацию:https://telemost.yandex.ru/j/97577148817994</t>
+          <t>Введение в информационную безопасность. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/97577148817994</t>
         </is>
       </c>
       <c r="U27" s="5" t="inlineStr">
         <is>
-          <t>Введение в информационную безопасность.   Мубараков Б.Г.  Ссылка на консультацию:https://telemost.yandex.ru/j/97577148817994</t>
+          <t>Введение в информационную безопасность. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/97577148817994</t>
         </is>
       </c>
     </row>
@@ -2229,24 +2152,20 @@
           <t>13:40</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="S28" s="5" t="inlineStr">
         <is>
-          <t>(07.09.24; 21.09.24; 28.09.24; 5.10.24; 12.10.24) Русский язык и культура речи.  Сафиуллина Л.Г.Ссылка на консультацию: https://telemost.yandex.ru/j/92794153789329</t>
+          <t>(07.09.24; 21.09.24; 28.09.24; 5.10.24; 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.Ссылка на консультацию: https://telemost.yandex.ru/j/92794153789329</t>
         </is>
       </c>
       <c r="T28" s="5" t="inlineStr">
         <is>
-          <t>(07.09.24; 21.09.24; 28.09.24; 5.10.24; 12.10.24) Русский язык и культура речи.  Сафиуллина Л.Г.Ссылка на консультацию: https://telemost.yandex.ru/j/92794153789329</t>
+          <t>(07.09.24; 21.09.24; 28.09.24; 5.10.24; 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.Ссылка на консультацию: https://telemost.yandex.ru/j/92794153789329</t>
         </is>
       </c>
       <c r="U28" s="5" t="inlineStr">
         <is>
-          <t>(07.09.24; 21.09.24; 28.09.24; 5.10.24; 12.10.24) Русский язык и культура речи.  Сафиуллина Л.Г.Ссылка на консультацию: https://telemost.yandex.ru/j/92794153789329</t>
+          <t>(07.09.24; 21.09.24; 28.09.24; 5.10.24; 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.Ссылка на консультацию: https://telemost.yandex.ru/j/92794153789329</t>
         </is>
       </c>
     </row>
@@ -2264,14 +2183,10 @@
           <t>15:20</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="R29" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Лабораторный практикум по программированию. Кашуба А.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/70436209594133 </t>
+          <t>Лабораторный практикум по программированию. Кашуба А.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/70436209594133</t>
         </is>
       </c>
     </row>
@@ -2289,11 +2204,7 @@
           <t>20:40</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31" ht="80" customHeight="1"/>
     <row r="32" ht="80" customHeight="1"/>

--- a/tables/CookedTable.xlsx
+++ b/tables/CookedTable.xlsx
@@ -643,35 +643,63 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="O2" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х. Ссылка на консультацию: https://telemost.yandex.ru/j/95556470761655</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/95556470761655</t>
         </is>
       </c>
       <c r="P2" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х. Ссылка на консультацию: https://telemost.yandex.ru/j/95556470761655</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/95556470761655</t>
         </is>
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х. Ссылка на консультацию: https://telemost.yandex.ru/j/95556470761655</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/95556470761655</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х. Ссылка на консультацию: https://telemost.yandex.ru/j/95556470761655</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/95556470761655</t>
         </is>
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х. Ссылка на консультацию: https://telemost.yandex.ru/j/95556470761655</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/95556470761655</t>
         </is>
       </c>
       <c r="Y2" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х. Ссылка на консультацию: https://telemost.yandex.ru/j/95556470761655</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/95556470761655</t>
         </is>
       </c>
     </row>
@@ -691,82 +719,146 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
-          <t>Технологии программирования. Тумаков Д.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/71097686755485</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Технологии программирования. Тумаков Д.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/71097686755485</t>
         </is>
       </c>
       <c r="P3" s="5" t="inlineStr">
         <is>
-          <t>Технологии программирования. Тумаков Д.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/71097686755485</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Технологии программирования. Тумаков Д.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/71097686755485</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="U3" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Дубровин В.Т. с 16.09.2024 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Дубровин В.Т. с 16.09.2024
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Дубровин В.Т. с 16.09.2024 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Дубровин В.Т. с 16.09.2024
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Дубровин В.Т. с 16.09.2024 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Дубровин В.Т. с 16.09.2024
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="Y3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Дубровин В.Т. с 16.09.2024 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Дубровин В.Т. с 16.09.2024
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Асхатов Р.М.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="AA3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Асхатов Р.М.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="AB3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Асхатов Р.М.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="AC3" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Асхатов Р.М.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
     </row>
@@ -786,57 +878,104 @@
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="M4" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
-          <t>История России. Маслова Ю.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Маслова Ю.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102844817/1947342026</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Курбангалеев А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/62470180845124 или Подключиться к конференции Zoom https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09 Идентификатор конференции: 304 629 1227 Код доступа: 424451</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Курбангалеев А.А. или Подключиться к конференции Zoom Идентификатор конференции: 304 629 1227 Код доступа: 424451
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/62470180845124
+https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Курбангалеев А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/62470180845124 или Подключиться к конференции Zoom https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09 Идентификатор конференции: 304 629 1227 Код доступа: 424451</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Курбангалеев А.А. или Подключиться к конференции Zoom Идентификатор конференции: 304 629 1227 Код доступа: 424451
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/62470180845124
+https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09</t>
         </is>
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Курбангалеев А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/62470180845124 или Подключиться к конференции Zoom https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09 Идентификатор конференции: 304 629 1227 Код доступа: 424451</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Курбангалеев А.А. или Подключиться к конференции Zoom Идентификатор конференции: 304 629 1227 Код доступа: 424451
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/62470180845124
+https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09</t>
         </is>
       </c>
     </row>
@@ -854,25 +993,45 @@
           <t>17:20</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
-          <t>История России. Бродовская Л.Н. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Бродовская Л.Н.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102794763/1904190240</t>
         </is>
       </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
-          <t>История России. Бродовская Л.Н. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Бродовская Л.Н.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102794763/1904190240</t>
         </is>
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>История России. Бродовская Л.Н. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Бродовская Л.Н.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102794763/1904190240</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>История России. Бродовская Л.Н. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Бродовская Л.Н.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102794763/1904190240</t>
         </is>
       </c>
     </row>
@@ -890,25 +1049,55 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="O6" s="5" t="inlineStr">
         <is>
-          <t>(9.00-10.00) Иностранный язык. Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386; Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+(9.00-10.00) Иностранный язык. Еремеева Г.Р. Ситдикова Ф.Б. Губайдуллина Р.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/03989349089386
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/05660241064054</t>
         </is>
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
-          <t>(9.00-10.00) Иностранный язык. Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386; Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+(9.00-10.00) Иностранный язык. Еремеева Г.Р. Ситдикова Ф.Б. Губайдуллина Р.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/03989349089386
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/05660241064054</t>
         </is>
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>(9.00-10.00) Иностранный язык. Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+(9.00-10.00) Иностранный язык. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>(9.00-10.00) Иностранный язык. Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+(9.00-10.00) Иностранный язык. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
     </row>
@@ -928,92 +1117,184 @@
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Романенко А.Д.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/78590567577159
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Романенко А.Д.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/78590567577159
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Романенко А.Д.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/78590567577159
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Романенко А.Д.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/78590567577159
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Романенко А.Д.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/78590567577159
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Романенко А.Д.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/78590567577159
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="M7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Романенко А.Д.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/78590567577159
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Романенко А.Д. Ссылка на консультацию: https://telemost.yandex.ru/j/78590567577159 Cсылка на трансляцию для зрителей: https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Романенко А.Д.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/78590567577159
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
         </is>
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Асхатов Р.М.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Асхатов Р.М. Ссылка на консультацию: https://telemost.yandex.ru/j/01264057726383</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Асхатов Р.М.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/01264057726383</t>
         </is>
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Буравлева В.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Буравлева В.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
-          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Буравлева В.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="Y7" s="5" t="inlineStr">
         <is>
-          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Буравлева В.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Губайдуллина Р.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="AA7" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Губайдуллина Р.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="AB7" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Губайдуллина Р.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="AC7" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Губайдуллина Р.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/05660241064054 ; Закирова Г.Ш. Ссылка на консультацию:https://telemost.yandex.ru/j/95598867268168 ; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Губайдуллина Р.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
     </row>
@@ -1033,72 +1314,140 @@
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки, практика. Байрашева В.Р. Ссылка на консультацию:https://telemost.yandex.ru/j/93178198843348</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки, практика. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/93178198843348</t>
         </is>
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К. Ссылка на консультацию:https://telemost.yandex.ru/j/23306671087946</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/23306671087946</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К. Ссылка на консультацию:https://telemost.yandex.ru/j/23306671087946</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/23306671087946</t>
         </is>
       </c>
       <c r="L8" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К. Ссылка на консультацию:https://telemost.yandex.ru/j/23306671087946</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/23306671087946</t>
         </is>
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Сидоров А.М. Ссылка на консультацию: https://telemost.yandex.ru/j/45978894001477</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Сидоров А.М.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/45978894001477</t>
         </is>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Сидоров А.М. Ссылка на консультацию: https://telemost.yandex.ru/j/45978894001477</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Сидоров А.М.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/45978894001477</t>
         </is>
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Еремеева Г.Р . Юзмухаметова Л.Н. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/03989349089386
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Еремеева Г.Р . Юзмухаметова Л.Н. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/03989349089386
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="X8" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Еремеева Г.Р . Юзмухаметова Л.Н. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/03989349089386
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="Y8" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753 ; Еремеева Г.Р . Ссылка на консультацию:https://telemost.yandex.ru/j/03989349089386 ; Юзмухаметова Л.Н.. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Галиуллина Э.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/73406674337681</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Еремеева Г.Р . Юзмухаметова Л.Н. Галиуллина Э.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/03989349089386
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/73406674337681</t>
         </is>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
-          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Буравлева В.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="AA8" s="5" t="inlineStr">
         <is>
-          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Буравлева В.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="AB8" s="5" t="inlineStr">
         <is>
-          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Буравлева В.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
       <c r="AC8" s="5" t="inlineStr">
         <is>
-          <t>История России. Буравлева В.В. Ссылка на консультацию: https://kpfu.mts-link.ru/j/102873953/200173465</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+История России. Буравлева В.В.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/102873953/200173465</t>
         </is>
       </c>
     </row>
@@ -1118,47 +1467,123 @@
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="M9" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168; Першина Н.О. Ссылка на консультацию: https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н.. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования на С++. Ахтямов Р.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/19232579891653</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования на С++. Ахтямов Р.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/19232579891653</t>
         </is>
       </c>
     </row>
@@ -1178,42 +1603,86 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Першина Н.О. Ссылка на консультацию:https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Першина Н.О. Ссылка на консультацию:https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Першина Н.О. Ссылка на консультацию:https://telemost.yandex.ru/j/20532100733658; Губайдуллина Р.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/05660241064054; Еремеева Г.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/03989349089386</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/20532100733658
+https://telemost.yandex.ru/j/05660241064054
+https://telemost.yandex.ru/j/03989349089386</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/93178198843348</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по информационно-компьютерным технологиям. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/93178198843348</t>
         </is>
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультациюhttps://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168</t>
         </is>
       </c>
       <c r="T10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультациюhttps://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168</t>
         </is>
       </c>
       <c r="U10" s="5" t="inlineStr">
         <is>
-          <t>Иностранный язык. Ситдикова Ф.Б. Ссылка на консультациюhttps://telemost.yandex.ru/j/75877532265753; Юзмухаметова Л.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/39730979713190 ; Закирова Г.Ш. Ссылка на консультацию: https://telemost.yandex.ru/j/95598867268168</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/75877532265753
+https://telemost.yandex.ru/j/39730979713190
+https://telemost.yandex.ru/j/95598867268168</t>
         </is>
       </c>
       <c r="AA10" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования на С++. Ахтямов Р.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/71767089694924</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования на С++. Ахтямов Р.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/71767089694924</t>
         </is>
       </c>
     </row>
@@ -1231,20 +1700,36 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="S11" s="5" t="inlineStr">
         <is>
-          <t>Физика. Налетов В.В. Ссылка на консультацию: https://telemost.yandex.ru/j/3042816657. Адрес для старост: naletov.phys.inst.2020@mail.ru</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Физика. Налетов В.В. Адрес для старост: naletov.phys.inst.2020@mail.ru
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/3042816657.</t>
         </is>
       </c>
       <c r="T11" s="5" t="inlineStr">
         <is>
-          <t>Физика. Налетов В.В. Ссылка на консультацию: https://telemost.yandex.ru/j/3042816657. Адрес для старост: naletov.phys.inst.2020@mail.ru</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Физика. Налетов В.В. Адрес для старост: naletov.phys.inst.2020@mail.ru
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/3042816657.</t>
         </is>
       </c>
       <c r="U11" s="5" t="inlineStr">
         <is>
-          <t>Физика. Налетов В.В. Ссылка на консультацию: https://telemost.yandex.ru/j/3042816657. Адрес для старост: naletov.phys.inst.2020@mail.ru</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Физика. Налетов В.В. Адрес для старост: naletov.phys.inst.2020@mail.ru
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/3042816657.</t>
         </is>
       </c>
     </row>
@@ -1264,57 +1749,101 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="M12" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Байрашева В.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/68979721192201</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Байрашева В.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/68979721192201</t>
         </is>
       </c>
       <c r="S12" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Масловская А.Г. Ссылка на консультацию: https://telemost.yandex.ru/j/73430444341456</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Масловская А.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/73430444341456</t>
         </is>
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Масловская А.Г. Ссылка на консультацию: https://telemost.yandex.ru/j/73430444341456</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Масловская А.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/73430444341456</t>
         </is>
       </c>
       <c r="U12" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Масловская А.Г. Ссылка на консультацию: https://telemost.yandex.ru/j/73430444341456</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Масловская А.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/73430444341456</t>
         </is>
       </c>
     </row>
@@ -1334,92 +1863,164 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Дубровин В.Т. с 18.09 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Дубровин В.Т. с 18.09
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Дубровин В.Т. с 18.09 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Дубровин В.Т. с 18.09
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>Математический анализ. Дубровин В.Т. с 18.09 Ссылка на консультацию: https://telemost.yandex.ru/j/31079638256249</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Математический анализ. Дубровин В.Т. с 18.09
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/31079638256249</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Гайнутдинова А.Ф. Ссылка на консультацию: https://telemost.yandex.ru/j/06177499345979</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Гайнутдинова А.Ф.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/06177499345979</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Ахтямов Р.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/57523198147457</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Ахтямов Р.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/57523198147457</t>
         </is>
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Баширова Д.К. Ссылка на консультацию: https://telemost.yandex.ru/j/82649205953652</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Баширова Д.К.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/82649205953652</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Баширова Д.К. Ссылка на консультацию: https://telemost.yandex.ru/j/82649205953652</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Баширова Д.К.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/82649205953652</t>
         </is>
       </c>
       <c r="L13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Баширова Д.К. Ссылка на консультацию: https://telemost.yandex.ru/j/82649205953652</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Баширова Д.К.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/82649205953652</t>
         </is>
       </c>
       <c r="M13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Зиннатуллин И.Г.Ссылка на консультацию:https://telemost.yandex.ru/j/24958426605295</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Зиннатуллин И.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/24958426605295</t>
         </is>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>Программирование и алгоритмические языки. Серов Д.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/22069858422782</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Программирование и алгоритмические языки. Серов Д.Ю.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/22069858422782</t>
         </is>
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Карчевский Е.М. Ссылка на консультацию: https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Карчевский Е.М.
+📚 Ссылки на трансляцию / материалы:
+https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
         </is>
       </c>
       <c r="P13" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Карчевский Е.М. Ссылка на консультацию: https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Карчевский Е.М.
+📚 Ссылки на трансляцию / материалы:
+https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
         </is>
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Гайнуллина А.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/55334243936222</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Гайнуллина А.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/55334243936222</t>
         </is>
       </c>
       <c r="R13" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Гайнуллина А.Р. Ссылка на консультацию: https://telemost.yandex.ru/j/55334243936222</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Гайнуллина А.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/55334243936222</t>
         </is>
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Авдеева А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Авдеева А.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/63679463147622</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Авдеева А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Авдеева А.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/63679463147622</t>
         </is>
       </c>
       <c r="X13" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Авдеева А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Авдеева А.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/63679463147622</t>
         </is>
       </c>
       <c r="Y13" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Авдеева А.А. Ссылка на консультацию: https://telemost.yandex.ru/j/63679463147622</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Авдеева А.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/63679463147622</t>
         </is>
       </c>
     </row>
@@ -1439,69 +2040,133 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Буянов В.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/29373530981922</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Буянов В.Ю.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/29373530981922</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Буянов В.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/29373530981922</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Буянов В.Ю.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/29373530981922</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Буянов В.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/29373530981922</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Буянов В.Ю.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/29373530981922</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям. Гайнутдинова А.Ф.Ссылка на консультацию: https://telemost.yandex.ru/j/36980135424263</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по информационно-компьютерным технологиям. Гайнутдинова А.Ф.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/36980135424263</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям. Ахтямов Р.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/32444479589809</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по информационно-компьютерным технологиям. Ахтямов Р.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/32444479589809</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="M14" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям. Зиннатуллин И.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/13031439014757</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по информационно-компьютерным технологиям. Зиннатуллин И.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/13031439014757</t>
         </is>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям. Серов Д.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/90815912051711</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по информационно-компьютерным технологиям. Серов Д.Ю.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/90815912051711</t>
         </is>
       </c>
       <c r="Q14" s="5" t="inlineStr">
         <is>
-          <t>Дискретная математика. Пшеничный П.В. Ссылка на консультацию: https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дискретная математика. Пшеничный П.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
         </is>
       </c>
       <c r="R14" s="5" t="inlineStr">
         <is>
-          <t>Дискретная математика. Пшеничный П.В. Ссылка на консультацию: https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дискретная математика. Пшеничный П.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
         </is>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: https://telemost.yandex.ru/j/17331793207150. Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: Ссылка на трансляцию для зрителей:
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/17331793207150.
+https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
         </is>
       </c>
       <c r="AA14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: https://telemost.yandex.ru/j/17331793207150. Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: Ссылка на трансляцию для зрителей:
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/17331793207150.
+https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
         </is>
       </c>
       <c r="AB14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: https://telemost.yandex.ru/j/17331793207150. Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: Ссылка на трансляцию для зрителей:
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/17331793207150.
+https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
         </is>
       </c>
       <c r="AC14" s="5" t="inlineStr">
         <is>
-          <t>Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: https://telemost.yandex.ru/j/17331793207150. Ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: Ссылка на трансляцию для зрителей:
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/17331793207150.
+https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
         </is>
       </c>
     </row>
@@ -1519,25 +2184,45 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="Z15" s="5" t="inlineStr">
         <is>
-          <t>Линейная алгебра. Ситдиков А.С. Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Линейная алгебра. Ситдиков А.С.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/14681840218297</t>
         </is>
       </c>
       <c r="AA15" s="5" t="inlineStr">
         <is>
-          <t>Линейная алгебра. Ситдиков А.С. Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Линейная алгебра. Ситдиков А.С.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/14681840218297</t>
         </is>
       </c>
       <c r="AB15" s="5" t="inlineStr">
         <is>
-          <t>Линейная алгебра. Ситдиков А.С. Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Линейная алгебра. Ситдиков А.С.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/14681840218297</t>
         </is>
       </c>
       <c r="AC15" s="5" t="inlineStr">
         <is>
-          <t>Линейная алгебра. Ситдиков А.С. Ссылка на консультацию: https://telemost.yandex.ru/j/14681840218297</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Линейная алгебра. Ситдиков А.С.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/14681840218297</t>
         </is>
       </c>
     </row>
@@ -1557,27 +2242,47 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Казаева К.Е. Ссылка на консультацию: https://telemost.yandex.ru/j/27367933567979</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования. Казаева К.Е.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/27367933567979</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Казаева К.Е. Ссылка на консультацию: https://telemost.yandex.ru/j/27367933567979</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования. Казаева К.Е.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/27367933567979</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Казаева К.Е. Ссылка на консультацию: https://telemost.yandex.ru/j/27367933567979</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования. Казаева К.Е.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/27367933567979</t>
         </is>
       </c>
       <c r="Q16" s="5" t="inlineStr">
         <is>
-          <t>Лаб. Прак Тагиров Р.Р. ссылка: https://telemost.yandex.ru/j/45476175541556</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лаб. Прак Тагиров Р.Р. ссылка:
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/45476175541556</t>
         </is>
       </c>
       <c r="AB16" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования на С++. Ахтямов Р.Б. Ссылка на консультацию:https://telemost.yandex.ru/j/87664612186883</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования на С++. Ахтямов Р.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/87664612186883</t>
         </is>
       </c>
     </row>
@@ -1597,47 +2302,91 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Рунг Е.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/33800225058081,
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Рунг Е.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/33800225058081,
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Рунг Е.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/33800225058081,
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Рунг Е.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/33800225058081,
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Рунг Е.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/33800225058081,
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Рунг Е.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/33800225058081,
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Рунг Е.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/33800225058081,
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="N17" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Рунг Е.В. Ссылка на видеовстречу для организатора и участников:https://telemost.yandex.ru/j/33800225058081, ссылка на трансляцию для зрителей: https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Рунг Е.В.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/33800225058081,
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
         </is>
       </c>
       <c r="AC17" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования на С++. Ахтямов Р.Б. Ссылка на консультацию: https://telemost.yandex.ru/j/10841009668375</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования на С++. Ахтямов Р.Б.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/10841009668375</t>
         </is>
       </c>
     </row>
@@ -1657,20 +2406,36 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>Психология. Устин П.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/49615810002744</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Психология. Устин П.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/49615810002744</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Психология. Устин П.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/49615810002744</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Психология. Устин П.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/49615810002744</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>Психология. Устин П.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/49615810002744</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Психология. Устин П.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/49615810002744</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="80" customHeight="1">
       <c r="A19" t="n">
@@ -1688,132 +2453,314 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="M19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="O19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="P19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="U19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="V19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="W19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="X19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="Y19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="Z19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="AB19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
       <c r="AC19" s="5" t="inlineStr">
         <is>
-          <t>Основы российской государственности. Рогатин В.Н. Ссылка на консультацию:https://telemost.yandex.ru/j/9729621291. Задание № 1. Прочитать конституцию РФ. https://www.kremlin.ru/acts/constitution Задание № 2. Посмотреть видео. https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/ Задание № 3. Посмотреть видео. https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/9729621291.
+https://www.kremlin.ru/acts/constitution
+https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
         </is>
       </c>
     </row>
@@ -1831,15 +2778,27 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="Q20" s="5" t="inlineStr">
         <is>
-          <t>Информационные технологии. Рубцова Р.Г. Ссылка на консультацию: https://telemost.yandex.ru/j/32498295057706</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Информационные технологии. Рубцова Р.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/32498295057706</t>
         </is>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>Информационные технологии. Рубцова Р.Г. Ссылка на консультацию: https://telemost.yandex.ru/j/32498295057706</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Информационные технологии. Рубцова Р.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/32498295057706</t>
         </is>
       </c>
     </row>
@@ -1857,10 +2816,18 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К. Ссылка на консультацию</t>
+          <t xml:space="preserve">⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К.
+📚 Ссылки на трансляцию / материалы:
+</t>
         </is>
       </c>
     </row>
@@ -1878,15 +2845,27 @@
           <t>11:40</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="Q22" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования. Тагиров Р.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d</t>
         </is>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования. Тагиров Р.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d</t>
         </is>
       </c>
     </row>
@@ -1906,17 +2885,29 @@
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования. Тагиров Р.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
         </is>
       </c>
       <c r="T23" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования. Тагиров Р.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
         </is>
       </c>
       <c r="U23" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования. Тагиров Р.Р. Ссылка на консультацию: https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования. Тагиров Р.Р.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
         </is>
       </c>
     </row>
@@ -1936,72 +2927,136 @@
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="K24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="L24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="M24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="N24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="O24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055</t>
         </is>
       </c>
       <c r="P24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53635524137055</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/53635524137055</t>
         </is>
       </c>
       <c r="V24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/14202741481289</t>
         </is>
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/14202741481289</t>
         </is>
       </c>
       <c r="X24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/14202741481289</t>
         </is>
       </c>
       <c r="Y24" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/14202741481289</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/14202741481289</t>
         </is>
       </c>
     </row>
@@ -2021,38 +3076,70 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/3796279800</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Шульгина О.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/3796279800</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/3796279800</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Шульгина О.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/3796279800</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/3796279800</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Шульгина О.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/3796279800</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="V25" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования на С++. Матренина О.М. Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования на С++. Матренина О.М.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
         </is>
       </c>
       <c r="W25" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования на С++. Матренина О.М. Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования на С++. Матренина О.М.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
         </is>
       </c>
       <c r="X25" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования на С++. Матренина О.М. Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования на С++. Матренина О.М.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
         </is>
       </c>
       <c r="Y25" s="5" t="inlineStr">
         <is>
-          <t>Основы программирования на С++. Матренина О.М. Ссылка на консультацию: https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Основы программирования на С++. Матренина О.М.
+📚 Ссылки на трансляцию / материалы:
+https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
         </is>
       </c>
     </row>
@@ -2072,38 +3159,73 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/11866007362473 ; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/11866007362473
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/11866007362473 ; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/11866007362473
+https://telemost.yandex.ru/j/53010120041434</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Ссылка на консультацию: https://telemost.yandex.ru/j/11866007362473 ; Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А. Ссылка на консультацию: https://telemost.yandex.ru/j/53010120041434</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/11866007362473
+https://telemost.yandex.ru/j/53010120041434</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="V26" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Шульгина О.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/1267243693</t>
         </is>
       </c>
       <c r="W26" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Шульгина О.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/1267243693</t>
         </is>
       </c>
       <c r="X26" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Шульгина О.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/1267243693</t>
         </is>
       </c>
       <c r="Y26" s="5" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия. Шульгина О.Н. Ссылка на консультацию: https://telemost.yandex.ru/j/1267243693</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Алгебра и геометрия. Шульгина О.Н.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/1267243693</t>
         </is>
       </c>
     </row>
@@ -2121,20 +3243,36 @@
           <t>11:40</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="S27" s="5" t="inlineStr">
         <is>
-          <t>Введение в информационную безопасность. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/97577148817994</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Введение в информационную безопасность. Мубараков Б.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/97577148817994</t>
         </is>
       </c>
       <c r="T27" s="5" t="inlineStr">
         <is>
-          <t>Введение в информационную безопасность. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/97577148817994</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Введение в информационную безопасность. Мубараков Б.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/97577148817994</t>
         </is>
       </c>
       <c r="U27" s="5" t="inlineStr">
         <is>
-          <t>Введение в информационную безопасность. Мубараков Б.Г. Ссылка на консультацию:https://telemost.yandex.ru/j/97577148817994</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Введение в информационную безопасность. Мубараков Б.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/97577148817994</t>
         </is>
       </c>
     </row>
@@ -2152,20 +3290,36 @@
           <t>13:40</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="S28" s="5" t="inlineStr">
         <is>
-          <t>(07.09.24; 21.09.24; 28.09.24; 5.10.24; 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.Ссылка на консультацию: https://telemost.yandex.ru/j/92794153789329</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+(07.09.24 21.09.24 28.09.24 5.10.24 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/92794153789329</t>
         </is>
       </c>
       <c r="T28" s="5" t="inlineStr">
         <is>
-          <t>(07.09.24; 21.09.24; 28.09.24; 5.10.24; 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.Ссылка на консультацию: https://telemost.yandex.ru/j/92794153789329</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+(07.09.24 21.09.24 28.09.24 5.10.24 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/92794153789329</t>
         </is>
       </c>
       <c r="U28" s="5" t="inlineStr">
         <is>
-          <t>(07.09.24; 21.09.24; 28.09.24; 5.10.24; 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.Ссылка на консультацию: https://telemost.yandex.ru/j/92794153789329</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+(07.09.24 21.09.24 28.09.24 5.10.24 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/92794153789329</t>
         </is>
       </c>
     </row>
@@ -2183,10 +3337,18 @@
           <t>15:20</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="R29" s="5" t="inlineStr">
         <is>
-          <t>Лабораторный практикум по программированию. Кашуба А.Ю. Ссылка на консультацию: https://telemost.yandex.ru/j/70436209594133</t>
+          <t>⏹ ⏹ ⏹
+💻 Описание пары:
+Лабораторный практикум по программированию. Кашуба А.Ю.
+📚 Ссылки на трансляцию / материалы:
+https://telemost.yandex.ru/j/70436209594133</t>
         </is>
       </c>
     </row>
@@ -2204,7 +3366,11 @@
           <t>20:40</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="80" customHeight="1"/>
     <row r="32" ht="80" customHeight="1"/>

--- a/tables/CookedTable.xlsx
+++ b/tables/CookedTable.xlsx
@@ -650,56 +650,56 @@
       </c>
       <c r="O2" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/95556470761655</t>
+https://telemost.yandex.ru/j/95556470761655
+===============</t>
         </is>
       </c>
       <c r="P2" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/95556470761655</t>
+https://telemost.yandex.ru/j/95556470761655
+===============</t>
         </is>
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/95556470761655</t>
+https://telemost.yandex.ru/j/95556470761655
+===============</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/95556470761655</t>
+https://telemost.yandex.ru/j/95556470761655
+===============</t>
         </is>
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/95556470761655</t>
+https://telemost.yandex.ru/j/95556470761655
+===============</t>
         </is>
       </c>
       <c r="Y2" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Основы языка Python. Гиниятова Д.Х.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/95556470761655</t>
+https://telemost.yandex.ru/j/95556470761655
+===============</t>
         </is>
       </c>
     </row>
@@ -719,146 +719,146 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Технологии программирования. Тумаков Д.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/71097686755485</t>
+https://telemost.yandex.ru/j/71097686755485
+===============</t>
         </is>
       </c>
       <c r="P3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Технологии программирования. Тумаков Д.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/71097686755485</t>
+https://telemost.yandex.ru/j/71097686755485
+===============</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="U3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Дубровин В.Т. с 16.09.2024
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/31079638256249</t>
+https://telemost.yandex.ru/j/31079638256249
+===============</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Дубровин В.Т. с 16.09.2024
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/31079638256249</t>
+https://telemost.yandex.ru/j/31079638256249
+===============</t>
         </is>
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Дубровин В.Т. с 16.09.2024
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/31079638256249</t>
+https://telemost.yandex.ru/j/31079638256249
+===============</t>
         </is>
       </c>
       <c r="Y3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Дубровин В.Т. с 16.09.2024
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/31079638256249</t>
+https://telemost.yandex.ru/j/31079638256249
+===============</t>
         </is>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Асхатов Р.М.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/01264057726383</t>
+https://telemost.yandex.ru/j/01264057726383
+===============</t>
         </is>
       </c>
       <c r="AA3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Асхатов Р.М.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/01264057726383</t>
+https://telemost.yandex.ru/j/01264057726383
+===============</t>
         </is>
       </c>
       <c r="AB3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Асхатов Р.М.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/01264057726383</t>
+https://telemost.yandex.ru/j/01264057726383
+===============</t>
         </is>
       </c>
       <c r="AC3" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Асхатов Р.М.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/01264057726383</t>
+https://telemost.yandex.ru/j/01264057726383
+===============</t>
         </is>
       </c>
     </row>
@@ -878,104 +878,104 @@
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="M4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Маслова Ю.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102844817/1947342026</t>
+https://kpfu.mts-link.ru/j/102844817/1947342026
+===============</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Курбангалеев А.А. или Подключиться к конференции Zoom Идентификатор конференции: 304 629 1227 Код доступа: 424451
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/62470180845124
-https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09</t>
+https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09
+===============</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Курбангалеев А.А. или Подключиться к конференции Zoom Идентификатор конференции: 304 629 1227 Код доступа: 424451
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/62470180845124
-https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09</t>
+https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09
+===============</t>
         </is>
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Курбангалеев А.А. или Подключиться к конференции Zoom Идентификатор конференции: 304 629 1227 Код доступа: 424451
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/62470180845124
-https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09</t>
+https://us04web.zoom.us/j/3046291227?pwd=VmE2aURrRERoaVJKUHlRYjNHZ0p2Zz09
+===============</t>
         </is>
       </c>
     </row>
@@ -1000,38 +1000,38 @@
       </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Бродовская Л.Н.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+https://kpfu.mts-link.ru/j/102794763/1904190240
+===============</t>
         </is>
       </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Бродовская Л.Н.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+https://kpfu.mts-link.ru/j/102794763/1904190240
+===============</t>
         </is>
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Бродовская Л.Н.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+https://kpfu.mts-link.ru/j/102794763/1904190240
+===============</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Бродовская Л.Н.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102794763/1904190240</t>
+https://kpfu.mts-link.ru/j/102794763/1904190240
+===============</t>
         </is>
       </c>
     </row>
@@ -1056,48 +1056,48 @@
       </c>
       <c r="O6" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 (9.00-10.00) Иностранный язык. Еремеева Г.Р. Ситдикова Ф.Б. Губайдуллина Р.Н.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/03989349089386
 https://telemost.yandex.ru/j/75877532265753
-https://telemost.yandex.ru/j/05660241064054</t>
+https://telemost.yandex.ru/j/05660241064054
+===============</t>
         </is>
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 (9.00-10.00) Иностранный язык. Еремеева Г.Р. Ситдикова Ф.Б. Губайдуллина Р.Н.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/03989349089386
 https://telemost.yandex.ru/j/75877532265753
-https://telemost.yandex.ru/j/05660241064054</t>
+https://telemost.yandex.ru/j/05660241064054
+===============</t>
         </is>
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 (9.00-10.00) Иностранный язык. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/39730979713190
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 (9.00-10.00) Иностранный язык. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/39730979713190
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
     </row>
@@ -1117,184 +1117,184 @@
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Романенко А.Д.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/78590567577159
-https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81
+===============</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Романенко А.Д.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/78590567577159
-https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81
+===============</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Романенко А.Д.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/78590567577159
-https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81
+===============</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Романенко А.Д.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/78590567577159
-https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81
+===============</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Романенко А.Д.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/78590567577159
-https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81
+===============</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Романенко А.Д.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/78590567577159
-https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81
+===============</t>
         </is>
       </c>
       <c r="M7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Романенко А.Д.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/78590567577159
-https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81
+===============</t>
         </is>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Романенко А.Д.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/78590567577159
-https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81</t>
+https://telemost.yandex.ru/live/4bc9876ed60a48b681f4955112602c81
+===============</t>
         </is>
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Асхатов Р.М.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/01264057726383</t>
+https://telemost.yandex.ru/j/01264057726383
+===============</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Асхатов Р.М.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/01264057726383</t>
+https://telemost.yandex.ru/j/01264057726383
+===============</t>
         </is>
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Буравлева В.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102873953/200173465</t>
+https://kpfu.mts-link.ru/j/102873953/200173465
+===============</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Буравлева В.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102873953/200173465</t>
+https://kpfu.mts-link.ru/j/102873953/200173465
+===============</t>
         </is>
       </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Буравлева В.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102873953/200173465</t>
+https://kpfu.mts-link.ru/j/102873953/200173465
+===============</t>
         </is>
       </c>
       <c r="Y7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Буравлева В.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102873953/200173465</t>
+https://kpfu.mts-link.ru/j/102873953/200173465
+===============</t>
         </is>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Губайдуллина Р.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/05660241064054
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
       <c r="AA7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Губайдуллина Р.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/05660241064054
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
       <c r="AB7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Губайдуллина Р.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/05660241064054
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
       <c r="AC7" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Губайдуллина Р.Н. Закирова Г.Ш. Першина Н.О. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/05660241064054
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
     </row>
@@ -1314,140 +1314,140 @@
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки, практика. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/93178198843348</t>
+https://telemost.yandex.ru/j/93178198843348
+===============</t>
         </is>
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/23306671087946</t>
+https://telemost.yandex.ru/j/23306671087946
+===============</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/23306671087946</t>
+https://telemost.yandex.ru/j/23306671087946
+===============</t>
         </is>
       </c>
       <c r="L8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/23306671087946</t>
+https://telemost.yandex.ru/j/23306671087946
+===============</t>
         </is>
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Сидоров А.М.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/45978894001477</t>
+https://telemost.yandex.ru/j/45978894001477
+===============</t>
         </is>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Сидоров А.М.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/45978894001477</t>
+https://telemost.yandex.ru/j/45978894001477
+===============</t>
         </is>
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Еремеева Г.Р . Юзмухаметова Л.Н. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
 https://telemost.yandex.ru/j/03989349089386
 https://telemost.yandex.ru/j/39730979713190
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Еремеева Г.Р . Юзмухаметова Л.Н. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
 https://telemost.yandex.ru/j/03989349089386
 https://telemost.yandex.ru/j/39730979713190
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
       <c r="X8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Еремеева Г.Р . Юзмухаметова Л.Н. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
 https://telemost.yandex.ru/j/03989349089386
 https://telemost.yandex.ru/j/39730979713190
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
       <c r="Y8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Еремеева Г.Р . Юзмухаметова Л.Н. Галиуллина Э.Б.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
 https://telemost.yandex.ru/j/03989349089386
 https://telemost.yandex.ru/j/39730979713190
-https://telemost.yandex.ru/j/73406674337681</t>
+https://telemost.yandex.ru/j/73406674337681
+===============</t>
         </is>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Буравлева В.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102873953/200173465</t>
+https://kpfu.mts-link.ru/j/102873953/200173465
+===============</t>
         </is>
       </c>
       <c r="AA8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Буравлева В.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102873953/200173465</t>
+https://kpfu.mts-link.ru/j/102873953/200173465
+===============</t>
         </is>
       </c>
       <c r="AB8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Буравлева В.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102873953/200173465</t>
+https://kpfu.mts-link.ru/j/102873953/200173465
+===============</t>
         </is>
       </c>
       <c r="AC8" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 История России. Буравлева В.В.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/102873953/200173465</t>
+https://kpfu.mts-link.ru/j/102873953/200173465
+===============</t>
         </is>
       </c>
     </row>
@@ -1467,8 +1467,7 @@
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
@@ -1476,13 +1475,13 @@
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
@@ -1490,13 +1489,13 @@
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
@@ -1504,13 +1503,13 @@
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
@@ -1518,13 +1517,13 @@
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
@@ -1532,13 +1531,13 @@
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
@@ -1546,13 +1545,13 @@
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="M9" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
@@ -1560,13 +1559,13 @@
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
@@ -1574,16 +1573,17 @@
 https://telemost.yandex.ru/j/95598867268168
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования на С++. Ахтямов Р.Б.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/19232579891653</t>
+https://telemost.yandex.ru/j/19232579891653
+===============</t>
         </is>
       </c>
     </row>
@@ -1603,86 +1603,86 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Першина Н.О. Губайдуллина Р.Н. Еремеева Г.Р.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/20532100733658
 https://telemost.yandex.ru/j/05660241064054
-https://telemost.yandex.ru/j/03989349089386</t>
+https://telemost.yandex.ru/j/03989349089386
+===============</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по информационно-компьютерным технологиям. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/93178198843348</t>
+https://telemost.yandex.ru/j/93178198843348
+===============</t>
         </is>
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
 https://telemost.yandex.ru/j/39730979713190
-https://telemost.yandex.ru/j/95598867268168</t>
+https://telemost.yandex.ru/j/95598867268168
+===============</t>
         </is>
       </c>
       <c r="T10" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
 https://telemost.yandex.ru/j/39730979713190
-https://telemost.yandex.ru/j/95598867268168</t>
+https://telemost.yandex.ru/j/95598867268168
+===============</t>
         </is>
       </c>
       <c r="U10" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Иностранный язык. Ситдикова Ф.Б. Юзмухаметова Л.Н. Закирова Г.Ш.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/75877532265753
 https://telemost.yandex.ru/j/39730979713190
-https://telemost.yandex.ru/j/95598867268168</t>
+https://telemost.yandex.ru/j/95598867268168
+===============</t>
         </is>
       </c>
       <c r="AA10" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования на С++. Ахтямов Р.Б.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/71767089694924</t>
+https://telemost.yandex.ru/j/71767089694924
+===============</t>
         </is>
       </c>
     </row>
@@ -1707,29 +1707,29 @@
       </c>
       <c r="S11" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Физика. Налетов В.В. Адрес для старост: naletov.phys.inst.2020@mail.ru
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/3042816657.</t>
+https://telemost.yandex.ru/j/3042816657.
+===============</t>
         </is>
       </c>
       <c r="T11" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Физика. Налетов В.В. Адрес для старост: naletov.phys.inst.2020@mail.ru
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/3042816657.</t>
+https://telemost.yandex.ru/j/3042816657.
+===============</t>
         </is>
       </c>
       <c r="U11" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Физика. Налетов В.В. Адрес для старост: naletov.phys.inst.2020@mail.ru
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/3042816657.</t>
+https://telemost.yandex.ru/j/3042816657.
+===============</t>
         </is>
       </c>
     </row>
@@ -1749,101 +1749,101 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/68979721192201</t>
+https://telemost.yandex.ru/j/68979721192201
+===============</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/68979721192201</t>
+https://telemost.yandex.ru/j/68979721192201
+===============</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/68979721192201</t>
+https://telemost.yandex.ru/j/68979721192201
+===============</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/68979721192201</t>
+https://telemost.yandex.ru/j/68979721192201
+===============</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/68979721192201</t>
+https://telemost.yandex.ru/j/68979721192201
+===============</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/68979721192201</t>
+https://telemost.yandex.ru/j/68979721192201
+===============</t>
         </is>
       </c>
       <c r="M12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/68979721192201</t>
+https://telemost.yandex.ru/j/68979721192201
+===============</t>
         </is>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Байрашева В.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/68979721192201</t>
+https://telemost.yandex.ru/j/68979721192201
+===============</t>
         </is>
       </c>
       <c r="S12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Масловская А.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/73430444341456</t>
+https://telemost.yandex.ru/j/73430444341456
+===============</t>
         </is>
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Масловская А.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/73430444341456</t>
+https://telemost.yandex.ru/j/73430444341456
+===============</t>
         </is>
       </c>
       <c r="U12" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Масловская А.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/73430444341456</t>
+https://telemost.yandex.ru/j/73430444341456
+===============</t>
         </is>
       </c>
     </row>
@@ -1863,164 +1863,164 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Дубровин В.Т. с 18.09
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/31079638256249</t>
+https://telemost.yandex.ru/j/31079638256249
+===============</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Дубровин В.Т. с 18.09
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/31079638256249</t>
+https://telemost.yandex.ru/j/31079638256249
+===============</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Математический анализ. Дубровин В.Т. с 18.09
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/31079638256249</t>
+https://telemost.yandex.ru/j/31079638256249
+===============</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Гайнутдинова А.Ф.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/06177499345979</t>
+https://telemost.yandex.ru/j/06177499345979
+===============</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Ахтямов Р.Б.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/57523198147457</t>
+https://telemost.yandex.ru/j/57523198147457
+===============</t>
         </is>
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Баширова Д.К.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/82649205953652</t>
+https://telemost.yandex.ru/j/82649205953652
+===============</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Баширова Д.К.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/82649205953652</t>
+https://telemost.yandex.ru/j/82649205953652
+===============</t>
         </is>
       </c>
       <c r="L13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Баширова Д.К.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/82649205953652</t>
+https://telemost.yandex.ru/j/82649205953652
+===============</t>
         </is>
       </c>
       <c r="M13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Зиннатуллин И.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/24958426605295</t>
+https://telemost.yandex.ru/j/24958426605295
+===============</t>
         </is>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Программирование и алгоритмические языки. Серов Д.Ю.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/22069858422782</t>
+https://telemost.yandex.ru/j/22069858422782
+===============</t>
         </is>
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Карчевский Е.М.
 📚 Ссылки на трансляцию / материалы:
-https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
+https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0
+===============</t>
         </is>
       </c>
       <c r="P13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Карчевский Е.М.
 📚 Ссылки на трансляцию / материалы:
-https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0</t>
+https://yandex.ru/chat#/join/7e9a4d3f-c39a-4331-9a2c-e72aaeecf8f0
+===============</t>
         </is>
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Гайнуллина А.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/55334243936222</t>
+https://telemost.yandex.ru/j/55334243936222
+===============</t>
         </is>
       </c>
       <c r="R13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Гайнуллина А.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/55334243936222</t>
+https://telemost.yandex.ru/j/55334243936222
+===============</t>
         </is>
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Авдеева А.А.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/63679463147622</t>
+https://telemost.yandex.ru/j/63679463147622
+===============</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Авдеева А.А.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/63679463147622</t>
+https://telemost.yandex.ru/j/63679463147622
+===============</t>
         </is>
       </c>
       <c r="X13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Авдеева А.А.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/63679463147622</t>
+https://telemost.yandex.ru/j/63679463147622
+===============</t>
         </is>
       </c>
       <c r="Y13" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Авдеева А.А.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/63679463147622</t>
+https://telemost.yandex.ru/j/63679463147622
+===============</t>
         </is>
       </c>
     </row>
@@ -2040,47 +2040,47 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Буянов В.Ю.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/29373530981922</t>
+https://telemost.yandex.ru/j/29373530981922
+===============</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Буянов В.Ю.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/29373530981922</t>
+https://telemost.yandex.ru/j/29373530981922
+===============</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Буянов В.Ю.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/29373530981922</t>
+https://telemost.yandex.ru/j/29373530981922
+===============</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по информационно-компьютерным технологиям. Гайнутдинова А.Ф.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/36980135424263</t>
+https://telemost.yandex.ru/j/36980135424263
+===============</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по информационно-компьютерным технологиям. Ахтямов Р.Б.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/32444479589809</t>
+https://telemost.yandex.ru/j/32444479589809
+===============</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2095,78 +2095,78 @@
       </c>
       <c r="M14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по информационно-компьютерным технологиям. Зиннатуллин И.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/13031439014757</t>
+https://telemost.yandex.ru/j/13031439014757
+===============</t>
         </is>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по информационно-компьютерным технологиям. Серов Д.Ю.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/90815912051711</t>
+https://telemost.yandex.ru/j/90815912051711
+===============</t>
         </is>
       </c>
       <c r="Q14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дискретная математика. Пшеничный П.В.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
+https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82
+===============</t>
         </is>
       </c>
       <c r="R14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дискретная математика. Пшеничный П.В.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82</t>
+https://telemost.yandex.ru/live/d9457cfb564b40fb9fe68a64e3999e82
+===============</t>
         </is>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: Ссылка на трансляцию для зрителей:
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/17331793207150.
-https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc
+===============</t>
         </is>
       </c>
       <c r="AA14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: Ссылка на трансляцию для зрителей:
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/17331793207150.
-https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc
+===============</t>
         </is>
       </c>
       <c r="AB14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: Ссылка на трансляцию для зрителей:
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/17331793207150.
-https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc
+===============</t>
         </is>
       </c>
       <c r="AC14" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Ознакомительная практика. Сагдеева Р.Ф. Ссылка на видеовстресу для организатора и участников: Ссылка на трансляцию для зрителей:
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/17331793207150.
-https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc</t>
+https://telemost.yandex.ru/live/39ba455ac2f748bb9b892f4d3eae6cbc
+===============</t>
         </is>
       </c>
     </row>
@@ -2191,38 +2191,38 @@
       </c>
       <c r="Z15" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Линейная алгебра. Ситдиков А.С.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/14681840218297</t>
+https://telemost.yandex.ru/j/14681840218297
+===============</t>
         </is>
       </c>
       <c r="AA15" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Линейная алгебра. Ситдиков А.С.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/14681840218297</t>
+https://telemost.yandex.ru/j/14681840218297
+===============</t>
         </is>
       </c>
       <c r="AB15" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Линейная алгебра. Ситдиков А.С.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/14681840218297</t>
+https://telemost.yandex.ru/j/14681840218297
+===============</t>
         </is>
       </c>
       <c r="AC15" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Линейная алгебра. Ситдиков А.С.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/14681840218297</t>
+https://telemost.yandex.ru/j/14681840218297
+===============</t>
         </is>
       </c>
     </row>
@@ -2242,47 +2242,47 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования. Казаева К.Е.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/27367933567979</t>
+https://telemost.yandex.ru/j/27367933567979
+===============</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования. Казаева К.Е.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/27367933567979</t>
+https://telemost.yandex.ru/j/27367933567979
+===============</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования. Казаева К.Е.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/27367933567979</t>
+https://telemost.yandex.ru/j/27367933567979
+===============</t>
         </is>
       </c>
       <c r="Q16" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лаб. Прак Тагиров Р.Р. ссылка:
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/45476175541556</t>
+https://telemost.yandex.ru/j/45476175541556
+===============</t>
         </is>
       </c>
       <c r="AB16" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования на С++. Ахтямов Р.Б.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/87664612186883</t>
+https://telemost.yandex.ru/j/87664612186883
+===============</t>
         </is>
       </c>
     </row>
@@ -2302,91 +2302,91 @@
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Рунг Е.В.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/33800225058081,
-https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5
+===============</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Рунг Е.В.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/33800225058081,
-https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5
+===============</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Рунг Е.В.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/33800225058081,
-https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5
+===============</t>
         </is>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Рунг Е.В.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/33800225058081,
-https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5
+===============</t>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Рунг Е.В.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/33800225058081,
-https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5
+===============</t>
         </is>
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Рунг Е.В.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/33800225058081,
-https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5
+===============</t>
         </is>
       </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Рунг Е.В.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/33800225058081,
-https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5
+===============</t>
         </is>
       </c>
       <c r="N17" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Рунг Е.В.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/33800225058081,
-https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5</t>
+https://telemost.yandex.ru/live/17e4fe0a56964506a1a937e3b4781aa5
+===============</t>
         </is>
       </c>
       <c r="AC17" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования на С++. Ахтямов Р.Б.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/10841009668375</t>
+https://telemost.yandex.ru/j/10841009668375
+===============</t>
         </is>
       </c>
     </row>
@@ -2406,29 +2406,29 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Психология. Устин П.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/49615810002744</t>
+https://telemost.yandex.ru/j/49615810002744
+===============</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Психология. Устин П.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/49615810002744</t>
+https://telemost.yandex.ru/j/49615810002744
+===============</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Психология. Устин П.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/49615810002744</t>
+https://telemost.yandex.ru/j/49615810002744
+===============</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2453,314 +2453,314 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="M19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="O19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="P19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="U19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="V19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="W19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="X19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="Y19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="Z19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="AB19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
       <c r="AC19" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы российской государственности. Рогатин В.Н. Задание № 1. Прочитать конституцию РФ. Задание № 2. Посмотреть видео. Задание № 3. Посмотреть видео.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/9729621291.
 https://www.kremlin.ru/acts/constitution
 https://rutube.ru/video/9b80e77c5626903c3ef79e233f65d2c4/
-https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/</t>
+https://rutube.ru/video/b15341700d53beeed85eeb6446b43c87/
+===============</t>
         </is>
       </c>
     </row>
@@ -2785,20 +2785,20 @@
       </c>
       <c r="Q20" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Информационные технологии. Рубцова Р.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/32498295057706</t>
+https://telemost.yandex.ru/j/32498295057706
+===============</t>
         </is>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Информационные технологии. Рубцова Р.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/32498295057706</t>
+https://telemost.yandex.ru/j/32498295057706
+===============</t>
         </is>
       </c>
     </row>
@@ -2823,11 +2823,10 @@
       </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по информационно-компьютерным технологиям. Баширова Д.К.
 📚 Ссылки на трансляцию / материалы:
-</t>
+===============</t>
         </is>
       </c>
     </row>
@@ -2852,20 +2851,20 @@
       </c>
       <c r="Q22" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования. Тагиров Р.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d</t>
+https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d
+===============</t>
         </is>
       </c>
       <c r="R22" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования. Тагиров Р.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d</t>
+https://telemost.yandex.ru/live/720e70d82a634abe8a7154df5d96976d
+===============</t>
         </is>
       </c>
     </row>
@@ -2885,29 +2884,29 @@
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования. Тагиров Р.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
+https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf
+===============</t>
         </is>
       </c>
       <c r="T23" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования. Тагиров Р.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
+https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf
+===============</t>
         </is>
       </c>
       <c r="U23" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования. Тагиров Р.Р.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf</t>
+https://telemost.yandex.ru/live/db2ab694ad46400284e28259d0b10ccf
+===============</t>
         </is>
       </c>
     </row>
@@ -2927,136 +2926,136 @@
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/53635524137055
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/53635524137055
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/53635524137055
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/53635524137055
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="K24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/53635524137055
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="L24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/53635524137055
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="M24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/53635524137055
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="N24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/53635524137055
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="O24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/53635524137055</t>
+https://telemost.yandex.ru/j/53635524137055
+===============</t>
         </is>
       </c>
       <c r="P24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность. Долгов Д.А.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/53635524137055</t>
+https://telemost.yandex.ru/j/53635524137055
+===============</t>
         </is>
       </c>
       <c r="V24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/14202741481289</t>
+https://telemost.yandex.ru/j/14202741481289
+===============</t>
         </is>
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/14202741481289</t>
+https://telemost.yandex.ru/j/14202741481289
+===============</t>
         </is>
       </c>
       <c r="X24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/14202741481289</t>
+https://telemost.yandex.ru/j/14202741481289
+===============</t>
         </is>
       </c>
       <c r="Y24" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Введение в информационную безопасность и защита интеллектуальной собственности. Мубараков Б.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/14202741481289</t>
+https://telemost.yandex.ru/j/14202741481289
+===============</t>
         </is>
       </c>
     </row>
@@ -3076,29 +3075,29 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Шульгина О.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/3796279800</t>
+https://telemost.yandex.ru/j/3796279800
+===============</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Шульгина О.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/3796279800</t>
+https://telemost.yandex.ru/j/3796279800
+===============</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Шульгина О.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/3796279800</t>
+https://telemost.yandex.ru/j/3796279800
+===============</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3108,38 +3107,38 @@
       </c>
       <c r="V25" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования на С++. Матренина О.М.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772
+===============</t>
         </is>
       </c>
       <c r="W25" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования на С++. Матренина О.М.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772
+===============</t>
         </is>
       </c>
       <c r="X25" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования на С++. Матренина О.М.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772
+===============</t>
         </is>
       </c>
       <c r="Y25" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Основы программирования на С++. Матренина О.М.
 📚 Ссылки на трансляцию / материалы:
-https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772</t>
+https://kpfu.mts-link.ru/j/103005927/508472612/stream-new/2142353772
+===============</t>
         </is>
       </c>
     </row>
@@ -3159,32 +3158,32 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/11866007362473
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/11866007362473
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Дисциплины по выбору: Основы информационной безопасности. Долгов Д.А. Вопросы интеллектуальной собственности и лицензирования программных продуктов. Медведева О.А.
 📚 Ссылки на трансляцию / материалы:
 https://telemost.yandex.ru/j/11866007362473
-https://telemost.yandex.ru/j/53010120041434</t>
+https://telemost.yandex.ru/j/53010120041434
+===============</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3194,38 +3193,38 @@
       </c>
       <c r="V26" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Шульгина О.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/1267243693</t>
+https://telemost.yandex.ru/j/1267243693
+===============</t>
         </is>
       </c>
       <c r="W26" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Шульгина О.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/1267243693</t>
+https://telemost.yandex.ru/j/1267243693
+===============</t>
         </is>
       </c>
       <c r="X26" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Шульгина О.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/1267243693</t>
+https://telemost.yandex.ru/j/1267243693
+===============</t>
         </is>
       </c>
       <c r="Y26" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Алгебра и геометрия. Шульгина О.Н.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/1267243693</t>
+https://telemost.yandex.ru/j/1267243693
+===============</t>
         </is>
       </c>
     </row>
@@ -3250,29 +3249,29 @@
       </c>
       <c r="S27" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Введение в информационную безопасность. Мубараков Б.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/97577148817994</t>
+https://telemost.yandex.ru/j/97577148817994
+===============</t>
         </is>
       </c>
       <c r="T27" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Введение в информационную безопасность. Мубараков Б.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/97577148817994</t>
+https://telemost.yandex.ru/j/97577148817994
+===============</t>
         </is>
       </c>
       <c r="U27" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Введение в информационную безопасность. Мубараков Б.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/97577148817994</t>
+https://telemost.yandex.ru/j/97577148817994
+===============</t>
         </is>
       </c>
     </row>
@@ -3297,29 +3296,29 @@
       </c>
       <c r="S28" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 (07.09.24 21.09.24 28.09.24 5.10.24 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/92794153789329</t>
+https://telemost.yandex.ru/j/92794153789329
+===============</t>
         </is>
       </c>
       <c r="T28" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 (07.09.24 21.09.24 28.09.24 5.10.24 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/92794153789329</t>
+https://telemost.yandex.ru/j/92794153789329
+===============</t>
         </is>
       </c>
       <c r="U28" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 (07.09.24 21.09.24 28.09.24 5.10.24 12.10.24) Русский язык и культура речи. Сафиуллина Л.Г.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/92794153789329</t>
+https://telemost.yandex.ru/j/92794153789329
+===============</t>
         </is>
       </c>
     </row>
@@ -3344,11 +3343,11 @@
       </c>
       <c r="R29" s="5" t="inlineStr">
         <is>
-          <t>⏹ ⏹ ⏹
-💻 Описание пары:
+          <t>💻 Описание пары:
 Лабораторный практикум по программированию. Кашуба А.Ю.
 📚 Ссылки на трансляцию / материалы:
-https://telemost.yandex.ru/j/70436209594133</t>
+https://telemost.yandex.ru/j/70436209594133
+===============</t>
         </is>
       </c>
     </row>
